--- a/excel_templates/AScan/T_报表生成390.xlsx
+++ b/excel_templates/AScan/T_报表生成390.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE2AAE-F8CA-405E-9896-E5F0E40A3C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83718DF8-ADCE-4A9A-B574-F16C4991EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="960" windowWidth="15285" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,336 +233,173 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
+    <t>PXUT-390</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折射角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵敏度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分部：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="15"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班组：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">_        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>~K</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轨号</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
+      <t>${PXUT-390</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>PXUT-390</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>折射角</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵敏度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>分部：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班组：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">_        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>${PXUT-390</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${线名}线${行别}行${K范围}轨号${轨号范围}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,25 +450,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -808,10 +632,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,13 +650,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1001,7 @@
     </row>
     <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1188,24 +1012,24 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1222,40 +1046,40 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1088,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1097,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1106,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1299,56 +1123,56 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1358,19 +1182,19 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -1393,7 +1217,7 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="A22:E22"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
